--- a/server/prisma/seedData/Company.xlsx
+++ b/server/prisma/seedData/Company.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="506">
   <si>
     <t xml:space="preserve">certification_id</t>
   </si>
@@ -31,6 +32,9 @@
     <t xml:space="preserve">address</t>
   </si>
   <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
     <t xml:space="preserve">state</t>
   </si>
   <si>
@@ -232,6 +236,9 @@
     <t xml:space="preserve">complexe Nawres - Rue lac limene - bloc C - Lac  - 1053 -  Marsa</t>
   </si>
   <si>
+    <t xml:space="preserve">La Marsa</t>
+  </si>
+  <si>
     <t xml:space="preserve">contact@benelec.tn</t>
   </si>
   <si>
@@ -277,6 +284,9 @@
     <t xml:space="preserve">N°9 Rue SISSILIYA CITE EL GHAZEL - 2083 -  RAOUED</t>
   </si>
   <si>
+    <t xml:space="preserve">Raoued</t>
+  </si>
+  <si>
     <t xml:space="preserve">contact@engineering-bj.com</t>
   </si>
   <si>
@@ -391,6 +401,9 @@
     <t xml:space="preserve">Imm. Koueit - av.H.bourguiba - 2033 - Megrine</t>
   </si>
   <si>
+    <t xml:space="preserve">Megrine</t>
+  </si>
+  <si>
     <t xml:space="preserve">aymen@celectronix.com</t>
   </si>
   <si>
@@ -749,6 +762,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rue Tarek Ibn Zied, Cité Erriadh II 8090 Kélibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kélibia</t>
   </si>
   <si>
     <t xml:space="preserve">gigavolt@gigavolt-energy.com</t>
@@ -1533,7 +1549,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1568,6 +1584,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1645,7 +1666,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1658,15 +1679,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1783,8 +1795,8 @@
   </sheetPr>
   <dimension ref="A1:XFD66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1792,16 +1804,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="74.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="32.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="37.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="27.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="32.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="35.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="37.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="27.95"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,16 +1829,16 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1841,18 +1853,20 @@
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="XFA1" s="3"/>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="XFB1" s="3"/>
-      <c r="XFC1" s="1"/>
+      <c r="XFC1" s="3"/>
       <c r="XFD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,24 +1874,24 @@
         <v>368</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="n">
         <v>98285214</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1889,8 +1903,11 @@
       <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,19 +1915,19 @@
         <v>205</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>71254122</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>29</v>
@@ -1925,10 +1942,13 @@
         <v>32</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,40 +1956,43 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>73212908</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>40</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,19 +2000,19 @@
         <v>689</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>96777111</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>46</v>
@@ -2004,10 +2027,13 @@
         <v>49</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2015,19 +2041,19 @@
         <v>162</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>76627902</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>55</v>
@@ -2042,10 +2068,13 @@
         <v>58</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>59</v>
+        <v>23</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,19 +2082,19 @@
         <v>735</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>75213501</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>64</v>
@@ -2080,10 +2109,13 @@
         <v>67</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,40 +2123,43 @@
         <v>620</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>28109540</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,37 +2167,40 @@
         <v>265</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>21508047</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>82</v>
+        <v>23</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,37 +2208,40 @@
         <v>717</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>24772670</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>89</v>
+        <v>23</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,37 +2249,40 @@
         <v>678</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>21588602</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>82</v>
+        <v>23</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,37 +2290,40 @@
         <v>468</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>58105001</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>104</v>
+        <v>23</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2284,37 +2331,40 @@
         <v>484</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>99950860</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,37 +2372,40 @@
         <v>233</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>73226356</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2360,40 +2413,43 @@
         <v>672</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>71427461</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,37 +2457,40 @@
         <v>297</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>79396376</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>135</v>
+        <v>23</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,37 +2498,40 @@
         <v>275</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>24206310</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>143</v>
+        <v>23</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,37 +2539,40 @@
         <v>373</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>25351764</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,40 +2580,43 @@
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>71238700</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,37 +2624,40 @@
         <v>723</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>98332102</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>143</v>
+        <v>23</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,37 +2665,40 @@
         <v>643</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>22490882</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>143</v>
+        <v>23</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,40 +2706,43 @@
         <v>456</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>27973370</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>179</v>
+        <v>23</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,37 +2750,40 @@
         <v>692</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>58188832</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>186</v>
+        <v>23</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2711,37 +2791,40 @@
         <v>427</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E24" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>29810328</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>143</v>
+        <v>23</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2749,40 +2832,43 @@
         <v>314</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>27657065</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,37 +2876,40 @@
         <v>646</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>54464221</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>209</v>
+        <v>23</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,37 +2917,40 @@
         <v>691</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>74661195</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>216</v>
+        <v>23</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2866,40 +2958,43 @@
         <v>268</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="2" t="n">
         <v>75623662</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>224</v>
+        <v>23</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,40 +3002,43 @@
         <v>100</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="2" t="n">
         <v>71801266</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2948,40 +3046,43 @@
         <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E30" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" s="2" t="n">
         <v>72285999</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,37 +3090,40 @@
         <v>582</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E31" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="2" t="n">
         <v>54235235</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>244</v>
+        <v>158</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>143</v>
+        <v>23</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,37 +3131,40 @@
         <v>693</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="2" t="n">
         <v>26705333</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>254</v>
+        <v>23</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3065,40 +3172,43 @@
         <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="2" t="n">
         <v>71940200</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,43 +3216,46 @@
         <v>149</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="2" t="n">
         <v>74677888</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,40 +3263,43 @@
         <v>529</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="2" t="n">
         <v>98758763</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>46</v>
+        <v>276</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>272</v>
+        <v>47</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>276</v>
+        <v>23</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,40 +3307,43 @@
         <v>404</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="2" t="n">
         <v>71333130</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,43 +3351,46 @@
         <v>192</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="2" t="n">
         <v>29533333</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,37 +3398,40 @@
         <v>395</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="2" t="n">
         <v>31379999</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>139</v>
+        <v>298</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>143</v>
+        <v>23</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,37 +3439,40 @@
         <v>315</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="2" t="n">
         <v>26705329</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>154</v>
+        <v>304</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>300</v>
+        <v>158</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>303</v>
+        <v>23</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,37 +3480,40 @@
         <v>324</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="2" t="n">
         <v>31405304</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>154</v>
+        <v>311</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>307</v>
+        <v>158</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>143</v>
+        <v>23</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,37 +3521,40 @@
         <v>443</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="2" t="n">
         <v>70556520</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>22</v>
+        <v>321</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>317</v>
+        <v>23</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3428,37 +3562,40 @@
         <v>667</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="2" t="n">
         <v>71882832</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3466,43 +3603,46 @@
         <v>303</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="2" t="n">
         <v>74259852</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>154</v>
+        <v>332</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>328</v>
+        <v>158</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,43 +3650,46 @@
         <v>317</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E44" s="2" t="n">
+        <v>340</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F44" s="2" t="n">
         <v>73470222</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>38</v>
+        <v>341</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>337</v>
+        <v>39</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>22</v>
+        <v>344</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,43 +3697,46 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="2" t="n">
         <v>29277743</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>22</v>
+        <v>351</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3598,40 +3744,43 @@
         <v>269</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="2" t="n">
         <v>70754845</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>250</v>
+        <v>355</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>351</v>
+        <v>255</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>22</v>
+        <v>358</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,37 +3788,40 @@
         <v>154</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="2" t="n">
         <v>71503100</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>198</v>
+        <v>362</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>358</v>
+        <v>202</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>22</v>
+        <v>365</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>361</v>
+        <v>23</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3677,37 +3829,40 @@
         <v>684</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E48" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F48" s="2" t="n">
         <v>72536410</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="H48" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,43 +3870,46 @@
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" s="2" t="n">
         <v>71013740</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>286</v>
+        <v>376</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>372</v>
+        <v>291</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>22</v>
+        <v>379</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3759,40 +3917,43 @@
         <v>740</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="2" t="n">
         <v>29985510</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>22</v>
+        <v>388</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>384</v>
+        <v>23</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3800,40 +3961,43 @@
         <v>592</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E51" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F51" s="2" t="n">
         <v>72482071</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>139</v>
+        <v>392</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>388</v>
+        <v>143</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>22</v>
+        <v>395</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>392</v>
+        <v>23</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3841,40 +4005,43 @@
         <v>32</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E52" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F52" s="2" t="n">
         <v>27761000</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="G52" s="1" t="s">
-        <v>198</v>
+        <v>400</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>396</v>
+        <v>202</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>22</v>
+        <v>403</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>400</v>
+        <v>23</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3882,40 +4049,43 @@
         <v>66</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="2" t="n">
         <v>74223721</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>22</v>
+        <v>412</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>409</v>
+        <v>23</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3923,37 +4093,40 @@
         <v>65</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="2" t="n">
         <v>71750991</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="G54" s="1" t="s">
-        <v>131</v>
+        <v>417</v>
       </c>
       <c r="H54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3961,40 +4134,43 @@
         <v>234</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="2" t="n">
         <v>31130113</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>22</v>
+        <v>427</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>424</v>
+        <v>23</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4002,37 +4178,40 @@
         <v>291</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="2" t="n">
         <v>71799574</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>22</v>
+        <v>436</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>432</v>
+        <v>23</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4040,40 +4219,43 @@
         <v>107</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="2" t="n">
         <v>70310580</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="G57" s="1" t="s">
-        <v>191</v>
+        <v>440</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>436</v>
+        <v>195</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>22</v>
+        <v>443</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="O57" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4081,37 +4263,40 @@
         <v>316</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="2" t="n">
         <v>74606611</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="G58" s="1" t="s">
-        <v>286</v>
+        <v>447</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>443</v>
+        <v>291</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>22</v>
+        <v>450</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>423</v>
+        <v>23</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4119,37 +4304,40 @@
         <v>252</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="2" t="n">
         <v>74402017</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="G59" s="1" t="s">
-        <v>198</v>
+        <v>453</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>449</v>
+        <v>202</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>22</v>
+        <v>456</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>452</v>
+        <v>23</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4157,37 +4345,40 @@
         <v>335</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="2" t="n">
         <v>52111556</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="G60" s="1" t="s">
-        <v>139</v>
+        <v>460</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>456</v>
+        <v>143</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>22</v>
+        <v>463</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>423</v>
+        <v>23</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4195,40 +4386,43 @@
         <v>712</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="2" t="n">
         <v>29679750</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="G61" s="1" t="s">
-        <v>154</v>
+        <v>466</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>462</v>
+        <v>158</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>22</v>
+        <v>469</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="O61" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4236,40 +4430,43 @@
         <v>367</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="2" t="n">
         <v>44245400</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>228</v>
+        <v>473</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>469</v>
+        <v>232</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>22</v>
+        <v>476</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="O62" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4277,37 +4474,40 @@
         <v>688</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="2" t="n">
         <v>31365500</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>286</v>
+        <v>480</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>476</v>
+        <v>291</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>22</v>
+        <v>483</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>479</v>
+        <v>23</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4315,37 +4515,40 @@
         <v>144</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E64" s="2" t="n">
+        <v>487</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F64" s="2" t="n">
         <v>76474004</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="G64" s="1" t="s">
-        <v>404</v>
+        <v>488</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>484</v>
+        <v>409</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>22</v>
+        <v>491</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>487</v>
+        <v>23</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,40 +4556,43 @@
         <v>13</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="2" t="n">
         <v>71962052</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>46</v>
+        <v>495</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>491</v>
+        <v>47</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>22</v>
+        <v>498</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>492</v>
+        <v>23</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4394,45 +4600,48 @@
         <v>686</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E66" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="2" t="n">
         <v>55062167</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="G66" s="1" t="s">
-        <v>286</v>
+        <v>502</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>498</v>
+        <v>291</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>22</v>
+        <v>505</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>499</v>
+        <v>23</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="https://www.aes-tunisie.com"/>
+    <hyperlink ref="I4" r:id="rId1" display="https://www.aes-tunisie.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -4442,4 +4651,3111 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A1016"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.49"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="5"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="5"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="5"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="5"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="5"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="5"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="5"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="5"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="5"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="5"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="5"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="5"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="5"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="5"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="5"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="5"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="5"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="5"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="5"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="5"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="5"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="5"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="5"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="5"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="5"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="5"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="5"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="5"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="5"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="5"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="5"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="5"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="5"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="5"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="5"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="5"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="5"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="5"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="5"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="5"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="5"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="5"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="5"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="5"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="5"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="5"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="5"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="5"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="5"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="5"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="5"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="5"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="5"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="5"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="5"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="5"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="5"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="5"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="5"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="5"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="5"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="5"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="5"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="5"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="5"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="5"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="5"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="5"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="5"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="5"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="5"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="5"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="5"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="5"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="5"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="5"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="5"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="5"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="5"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="5"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="5"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="5"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="5"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="5"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="5"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="5"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="5"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="5"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="5"/>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="5"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="5"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="5"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="5"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="5"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="5"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="5"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="5"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="5"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="5"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="5"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="5"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="5"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="5"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="5"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="5"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="5"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="5"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="5"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="5"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="5"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="5"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="5"/>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="5"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="5"/>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="5"/>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="5"/>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="5"/>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="5"/>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="5"/>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="5"/>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="5"/>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="5"/>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="5"/>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="5"/>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="5"/>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="5"/>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="5"/>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="5"/>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="5"/>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="5"/>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="5"/>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="5"/>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="5"/>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="5"/>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="5"/>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="5"/>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="5"/>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="5"/>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="5"/>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="5"/>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="5"/>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="5"/>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="5"/>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="5"/>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="5"/>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="5"/>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="5"/>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="5"/>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="5"/>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="5"/>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="5"/>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="5"/>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="5"/>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="5"/>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="5"/>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="5"/>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="5"/>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="5"/>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="5"/>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="5"/>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="5"/>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="5"/>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="5"/>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="5"/>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="5"/>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="5"/>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="5"/>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="5"/>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="5"/>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="5"/>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="5"/>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="5"/>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="5"/>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="5"/>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="5"/>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="5"/>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="5"/>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="5"/>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="5"/>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="5"/>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="5"/>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="5"/>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="5"/>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="5"/>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="5"/>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="5"/>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="5"/>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="5"/>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="5"/>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="5"/>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="5"/>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="5"/>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="5"/>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="5"/>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="5"/>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="5"/>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="5"/>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="5"/>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="5"/>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="5"/>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="5"/>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="5"/>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="5"/>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="5"/>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="5"/>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="5"/>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="5"/>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="5"/>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="5"/>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="5"/>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="5"/>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="5"/>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="5"/>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="5"/>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="5"/>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="5"/>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="5"/>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="5"/>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="5"/>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="5"/>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="5"/>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="5"/>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="5"/>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="5"/>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="5"/>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="5"/>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="5"/>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="5"/>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="5"/>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="5"/>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="5"/>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="5"/>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="5"/>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="5"/>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="5"/>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="5"/>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="5"/>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="5"/>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="5"/>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="5"/>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="5"/>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="5"/>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="5"/>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="5"/>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="5"/>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="5"/>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="5"/>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="5"/>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="5"/>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="5"/>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="5"/>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="5"/>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="5"/>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="5"/>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="5"/>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="5"/>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="5"/>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="5"/>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="5"/>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="5"/>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="5"/>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="5"/>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="5"/>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="5"/>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="5"/>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="5"/>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="5"/>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="5"/>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="5"/>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="5"/>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="5"/>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="5"/>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="5"/>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="5"/>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="5"/>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="5"/>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="5"/>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="5"/>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="5"/>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="5"/>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="5"/>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="5"/>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="5"/>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="5"/>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="5"/>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="5"/>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="5"/>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="5"/>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="5"/>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="5"/>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="5"/>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="5"/>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="5"/>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="5"/>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="5"/>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="5"/>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="5"/>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="5"/>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="5"/>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="5"/>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="5"/>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="5"/>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="5"/>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="5"/>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="5"/>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="5"/>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="5"/>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="5"/>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="5"/>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="5"/>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="5"/>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="5"/>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="5"/>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="5"/>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="5"/>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="5"/>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="5"/>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="5"/>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="5"/>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="5"/>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="5"/>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="5"/>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="5"/>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="5"/>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="5"/>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="5"/>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="5"/>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="5"/>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="5"/>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="5"/>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="5"/>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="5"/>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="5"/>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="5"/>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="5"/>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="5"/>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="5"/>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="5"/>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="5"/>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="5"/>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="5"/>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="5"/>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="5"/>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="5"/>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="5"/>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="5"/>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="5"/>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="5"/>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="5"/>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="5"/>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="5"/>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="5"/>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="5"/>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="5"/>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="5"/>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="5"/>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="5"/>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="5"/>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="5"/>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="5"/>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="5"/>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="5"/>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="5"/>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="5"/>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="5"/>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="5"/>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="5"/>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="5"/>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="5"/>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="5"/>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="5"/>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="5"/>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="5"/>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="5"/>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="5"/>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="5"/>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="5"/>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="5"/>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="5"/>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="5"/>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="5"/>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="5"/>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="5"/>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="5"/>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="5"/>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="5"/>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="5"/>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="5"/>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="5"/>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="5"/>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="5"/>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="5"/>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="5"/>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="5"/>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="5"/>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="5"/>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="5"/>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="5"/>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="5"/>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="5"/>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="5"/>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="5"/>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="5"/>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="5"/>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="5"/>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="5"/>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="5"/>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="5"/>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="5"/>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="5"/>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="5"/>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="5"/>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="5"/>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="5"/>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="5"/>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="5"/>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="5"/>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="5"/>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="5"/>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="5"/>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="5"/>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="5"/>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="5"/>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="5"/>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="5"/>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="5"/>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="5"/>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="5"/>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="5"/>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="5"/>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="5"/>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="5"/>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="5"/>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="5"/>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="5"/>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="5"/>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="5"/>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="5"/>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="5"/>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="5"/>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="5"/>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="5"/>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="5"/>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="5"/>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="5"/>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="5"/>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="5"/>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="5"/>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="5"/>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="5"/>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="5"/>
+    </row>
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="5"/>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="5"/>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="5"/>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="5"/>
+    </row>
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="5"/>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="5"/>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="5"/>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="5"/>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="5"/>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="5"/>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="5"/>
+    </row>
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="5"/>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="5"/>
+    </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="5"/>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="5"/>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="5"/>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="5"/>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="5"/>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="5"/>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="5"/>
+    </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="5"/>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="5"/>
+    </row>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="5"/>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="5"/>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="5"/>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="5"/>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="5"/>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="5"/>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="5"/>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="5"/>
+    </row>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="5"/>
+    </row>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="5"/>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="5"/>
+    </row>
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="5"/>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="5"/>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="5"/>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="5"/>
+    </row>
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="5"/>
+    </row>
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="5"/>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="5"/>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="5"/>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="5"/>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="5"/>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="5"/>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="5"/>
+    </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="5"/>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="5"/>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="5"/>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="5"/>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="5"/>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="5"/>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="5"/>
+    </row>
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="5"/>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="5"/>
+    </row>
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="5"/>
+    </row>
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="5"/>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="5"/>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="5"/>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="5"/>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="5"/>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="5"/>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="5"/>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="5"/>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="5"/>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="5"/>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="5"/>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="5"/>
+    </row>
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="5"/>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="5"/>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="5"/>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="5"/>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="5"/>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="5"/>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="5"/>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="5"/>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="5"/>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="5"/>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="5"/>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="5"/>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="5"/>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="5"/>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="5"/>
+    </row>
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="5"/>
+    </row>
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="5"/>
+    </row>
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="5"/>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="5"/>
+    </row>
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="5"/>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="5"/>
+    </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="5"/>
+    </row>
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="5"/>
+    </row>
+    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="5"/>
+    </row>
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="5"/>
+    </row>
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="5"/>
+    </row>
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="5"/>
+    </row>
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="5"/>
+    </row>
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="5"/>
+    </row>
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="5"/>
+    </row>
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="5"/>
+    </row>
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="5"/>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="5"/>
+    </row>
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="5"/>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="5"/>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="5"/>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="5"/>
+    </row>
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="5"/>
+    </row>
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="5"/>
+    </row>
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="5"/>
+    </row>
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="5"/>
+    </row>
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="5"/>
+    </row>
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="5"/>
+    </row>
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="5"/>
+    </row>
+    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="5"/>
+    </row>
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="5"/>
+    </row>
+    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="5"/>
+    </row>
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="5"/>
+    </row>
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="5"/>
+    </row>
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="5"/>
+    </row>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="5"/>
+    </row>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="5"/>
+    </row>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="5"/>
+    </row>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="5"/>
+    </row>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="5"/>
+    </row>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="5"/>
+    </row>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="5"/>
+    </row>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="5"/>
+    </row>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="5"/>
+    </row>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="5"/>
+    </row>
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="5"/>
+    </row>
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="5"/>
+    </row>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="5"/>
+    </row>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="5"/>
+    </row>
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="5"/>
+    </row>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="5"/>
+    </row>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="5"/>
+    </row>
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="5"/>
+    </row>
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="5"/>
+    </row>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="5"/>
+    </row>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="5"/>
+    </row>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="5"/>
+    </row>
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="5"/>
+    </row>
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="5"/>
+    </row>
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="5"/>
+    </row>
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="5"/>
+    </row>
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="5"/>
+    </row>
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="5"/>
+    </row>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="5"/>
+    </row>
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="5"/>
+    </row>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="5"/>
+    </row>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="5"/>
+    </row>
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="5"/>
+    </row>
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="5"/>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="5"/>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="5"/>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="5"/>
+    </row>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="5"/>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="5"/>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="5"/>
+    </row>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="5"/>
+    </row>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A728" s="5"/>
+    </row>
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="5"/>
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="5"/>
+    </row>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="5"/>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="5"/>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="5"/>
+    </row>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="5"/>
+    </row>
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="5"/>
+    </row>
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="5"/>
+    </row>
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="5"/>
+    </row>
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="5"/>
+    </row>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="5"/>
+    </row>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A740" s="5"/>
+    </row>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="5"/>
+    </row>
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A742" s="5"/>
+    </row>
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="5"/>
+    </row>
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="5"/>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="5"/>
+    </row>
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="5"/>
+    </row>
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A747" s="5"/>
+    </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A748" s="5"/>
+    </row>
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="5"/>
+    </row>
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="5"/>
+    </row>
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="5"/>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="5"/>
+    </row>
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="5"/>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="5"/>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="5"/>
+    </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="5"/>
+    </row>
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A757" s="5"/>
+    </row>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A758" s="5"/>
+    </row>
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="5"/>
+    </row>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="5"/>
+    </row>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="5"/>
+    </row>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="5"/>
+    </row>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="5"/>
+    </row>
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="5"/>
+    </row>
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="5"/>
+    </row>
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="5"/>
+    </row>
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A767" s="5"/>
+    </row>
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="5"/>
+    </row>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="5"/>
+    </row>
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A770" s="5"/>
+    </row>
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A771" s="5"/>
+    </row>
+    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A772" s="5"/>
+    </row>
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="5"/>
+    </row>
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="5"/>
+    </row>
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A775" s="5"/>
+    </row>
+    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="5"/>
+    </row>
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="5"/>
+    </row>
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="5"/>
+    </row>
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="5"/>
+    </row>
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="5"/>
+    </row>
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="5"/>
+    </row>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="5"/>
+    </row>
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="5"/>
+    </row>
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="5"/>
+    </row>
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="5"/>
+    </row>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A786" s="5"/>
+    </row>
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="5"/>
+    </row>
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="5"/>
+    </row>
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="5"/>
+    </row>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="5"/>
+    </row>
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="5"/>
+    </row>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="5"/>
+    </row>
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A793" s="5"/>
+    </row>
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A794" s="5"/>
+    </row>
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A795" s="5"/>
+    </row>
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="5"/>
+    </row>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A797" s="5"/>
+    </row>
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A798" s="5"/>
+    </row>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A799" s="5"/>
+    </row>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A800" s="5"/>
+    </row>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A801" s="5"/>
+    </row>
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A802" s="5"/>
+    </row>
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A803" s="5"/>
+    </row>
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A804" s="5"/>
+    </row>
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A805" s="5"/>
+    </row>
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A806" s="5"/>
+    </row>
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A807" s="5"/>
+    </row>
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A808" s="5"/>
+    </row>
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A809" s="5"/>
+    </row>
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A810" s="5"/>
+    </row>
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="5"/>
+    </row>
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="5"/>
+    </row>
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="5"/>
+    </row>
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="5"/>
+    </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="5"/>
+    </row>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="5"/>
+    </row>
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="5"/>
+    </row>
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="5"/>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="5"/>
+    </row>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="5"/>
+    </row>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="5"/>
+    </row>
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="5"/>
+    </row>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="5"/>
+    </row>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="5"/>
+    </row>
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A825" s="5"/>
+    </row>
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="5"/>
+    </row>
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A827" s="5"/>
+    </row>
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A828" s="5"/>
+    </row>
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A829" s="5"/>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="5"/>
+    </row>
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A831" s="5"/>
+    </row>
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="5"/>
+    </row>
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A833" s="5"/>
+    </row>
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A834" s="5"/>
+    </row>
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A835" s="5"/>
+    </row>
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A836" s="5"/>
+    </row>
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A837" s="5"/>
+    </row>
+    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A838" s="5"/>
+    </row>
+    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A839" s="5"/>
+    </row>
+    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A840" s="5"/>
+    </row>
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A841" s="5"/>
+    </row>
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A842" s="5"/>
+    </row>
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A843" s="5"/>
+    </row>
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A844" s="5"/>
+    </row>
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A845" s="5"/>
+    </row>
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A846" s="5"/>
+    </row>
+    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A847" s="5"/>
+    </row>
+    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A848" s="5"/>
+    </row>
+    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A849" s="5"/>
+    </row>
+    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A850" s="5"/>
+    </row>
+    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A851" s="5"/>
+    </row>
+    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A852" s="5"/>
+    </row>
+    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A853" s="5"/>
+    </row>
+    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A854" s="5"/>
+    </row>
+    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A855" s="5"/>
+    </row>
+    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A856" s="5"/>
+    </row>
+    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A857" s="5"/>
+    </row>
+    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A858" s="5"/>
+    </row>
+    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A859" s="5"/>
+    </row>
+    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A860" s="5"/>
+    </row>
+    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A861" s="5"/>
+    </row>
+    <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A862" s="5"/>
+    </row>
+    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A863" s="5"/>
+    </row>
+    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A864" s="5"/>
+    </row>
+    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A865" s="5"/>
+    </row>
+    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A866" s="5"/>
+    </row>
+    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A867" s="5"/>
+    </row>
+    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A868" s="5"/>
+    </row>
+    <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A869" s="5"/>
+    </row>
+    <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A870" s="5"/>
+    </row>
+    <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A871" s="5"/>
+    </row>
+    <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A872" s="5"/>
+    </row>
+    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A873" s="5"/>
+    </row>
+    <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A874" s="5"/>
+    </row>
+    <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A875" s="5"/>
+    </row>
+    <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A876" s="5"/>
+    </row>
+    <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A877" s="5"/>
+    </row>
+    <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A878" s="5"/>
+    </row>
+    <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A879" s="5"/>
+    </row>
+    <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A880" s="5"/>
+    </row>
+    <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A881" s="5"/>
+    </row>
+    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A882" s="5"/>
+    </row>
+    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A883" s="5"/>
+    </row>
+    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A884" s="5"/>
+    </row>
+    <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A885" s="5"/>
+    </row>
+    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A886" s="5"/>
+    </row>
+    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A887" s="5"/>
+    </row>
+    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A888" s="5"/>
+    </row>
+    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A889" s="5"/>
+    </row>
+    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A890" s="5"/>
+    </row>
+    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A891" s="5"/>
+    </row>
+    <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A892" s="5"/>
+    </row>
+    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A893" s="5"/>
+    </row>
+    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A894" s="5"/>
+    </row>
+    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A895" s="5"/>
+    </row>
+    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A896" s="5"/>
+    </row>
+    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A897" s="5"/>
+    </row>
+    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A898" s="5"/>
+    </row>
+    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A899" s="5"/>
+    </row>
+    <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A900" s="5"/>
+    </row>
+    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A901" s="5"/>
+    </row>
+    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A902" s="5"/>
+    </row>
+    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A903" s="5"/>
+    </row>
+    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A904" s="5"/>
+    </row>
+    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A905" s="5"/>
+    </row>
+    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A906" s="5"/>
+    </row>
+    <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A907" s="5"/>
+    </row>
+    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A908" s="5"/>
+    </row>
+    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A909" s="5"/>
+    </row>
+    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A910" s="5"/>
+    </row>
+    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A911" s="5"/>
+    </row>
+    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A912" s="5"/>
+    </row>
+    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A913" s="5"/>
+    </row>
+    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A914" s="5"/>
+    </row>
+    <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A915" s="5"/>
+    </row>
+    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A916" s="5"/>
+    </row>
+    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A917" s="5"/>
+    </row>
+    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A918" s="5"/>
+    </row>
+    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A919" s="5"/>
+    </row>
+    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A920" s="5"/>
+    </row>
+    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A921" s="5"/>
+    </row>
+    <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A922" s="5"/>
+    </row>
+    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A923" s="5"/>
+    </row>
+    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A924" s="5"/>
+    </row>
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A925" s="5"/>
+    </row>
+    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A926" s="5"/>
+    </row>
+    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A927" s="5"/>
+    </row>
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A928" s="5"/>
+    </row>
+    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A929" s="5"/>
+    </row>
+    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A930" s="5"/>
+    </row>
+    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A931" s="5"/>
+    </row>
+    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A932" s="5"/>
+    </row>
+    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A933" s="5"/>
+    </row>
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A934" s="5"/>
+    </row>
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A935" s="5"/>
+    </row>
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A936" s="5"/>
+    </row>
+    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A937" s="5"/>
+    </row>
+    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A938" s="5"/>
+    </row>
+    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A939" s="5"/>
+    </row>
+    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A940" s="5"/>
+    </row>
+    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A941" s="5"/>
+    </row>
+    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A942" s="5"/>
+    </row>
+    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A943" s="5"/>
+    </row>
+    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A944" s="5"/>
+    </row>
+    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A945" s="5"/>
+    </row>
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A946" s="5"/>
+    </row>
+    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A947" s="5"/>
+    </row>
+    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A948" s="5"/>
+    </row>
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A949" s="5"/>
+    </row>
+    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A950" s="5"/>
+    </row>
+    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A951" s="5"/>
+    </row>
+    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A952" s="5"/>
+    </row>
+    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A953" s="5"/>
+    </row>
+    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A954" s="5"/>
+    </row>
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A955" s="5"/>
+    </row>
+    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A956" s="5"/>
+    </row>
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A957" s="5"/>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A958" s="5"/>
+    </row>
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A959" s="5"/>
+    </row>
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A960" s="5"/>
+    </row>
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A961" s="5"/>
+    </row>
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A962" s="5"/>
+    </row>
+    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A963" s="5"/>
+    </row>
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A964" s="5"/>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A965" s="5"/>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A966" s="5"/>
+    </row>
+    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A967" s="5"/>
+    </row>
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A968" s="5"/>
+    </row>
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="5"/>
+    </row>
+    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A970" s="5"/>
+    </row>
+    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A971" s="5"/>
+    </row>
+    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A972" s="5"/>
+    </row>
+    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A973" s="5"/>
+    </row>
+    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A974" s="5"/>
+    </row>
+    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A975" s="5"/>
+    </row>
+    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A976" s="5"/>
+    </row>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A977" s="5"/>
+    </row>
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="5"/>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="5"/>
+    </row>
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A980" s="5"/>
+    </row>
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A981" s="5"/>
+    </row>
+    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A982" s="5"/>
+    </row>
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A983" s="5"/>
+    </row>
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A984" s="5"/>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A985" s="5"/>
+    </row>
+    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A986" s="5"/>
+    </row>
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A987" s="5"/>
+    </row>
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A988" s="5"/>
+    </row>
+    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A989" s="5"/>
+    </row>
+    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A990" s="5"/>
+    </row>
+    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="5"/>
+    </row>
+    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A992" s="5"/>
+    </row>
+    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A993" s="5"/>
+    </row>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A994" s="5"/>
+    </row>
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A995" s="5"/>
+    </row>
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A996" s="5"/>
+    </row>
+    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A997" s="5"/>
+    </row>
+    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A998" s="5"/>
+    </row>
+    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A999" s="5"/>
+    </row>
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="5"/>
+    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="5"/>
+    </row>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="5"/>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="5"/>
+    </row>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="5"/>
+    </row>
+    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="5"/>
+    </row>
+    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="5"/>
+    </row>
+    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1007" s="5"/>
+    </row>
+    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="5"/>
+    </row>
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="5"/>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="5"/>
+    </row>
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1011" s="5"/>
+    </row>
+    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="5"/>
+    </row>
+    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="5"/>
+    </row>
+    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="5"/>
+    </row>
+    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1015" s="5"/>
+    </row>
+    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>